--- a/db/load/cdisc/ct/changes/2021-06-25/CDASH Terminology Changes 2021-06-25.xlsx
+++ b/db/load/cdisc/ct/changes/2021-06-25/CDASH Terminology Changes 2021-06-25.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-06-25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0BD0C1-FF57-5848-AA80-9A0B38D6C1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935295D6-4BAD-3C47-B299-0E0C73D51EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="4780" windowWidth="20320" windowHeight="10540"/>
+    <workbookView xWindow="5800" yWindow="500" windowWidth="30780" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDASH Terminology Changes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDASH Terminology Changes'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDASH Terminology Changes'!$A$1:$Q$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Release Date</t>
   </si>
@@ -125,14 +116,32 @@
   </si>
   <si>
     <t>CDISC-4995</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Prev Codelist</t>
+  </si>
+  <si>
+    <t>Prev Term</t>
+  </si>
+  <si>
+    <t>New Codelists</t>
+  </si>
+  <si>
+    <t>New Terms</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -154,7 +163,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +213,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -209,7 +224,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,12 +233,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 23 2" xfId="2"/>
-    <cellStyle name="Normal 28" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 23 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 28" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,12 +518,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -518,7 +536,7 @@
     <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,8 +570,26 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44372</v>
       </c>
@@ -585,8 +621,14 @@
         <v>18</v>
       </c>
       <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44372</v>
       </c>
@@ -618,8 +660,14 @@
         <v>20</v>
       </c>
       <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44372</v>
       </c>
@@ -651,8 +699,14 @@
         <v>22</v>
       </c>
       <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44372</v>
       </c>
@@ -684,8 +738,14 @@
         <v>24</v>
       </c>
       <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44372</v>
       </c>
@@ -717,8 +777,14 @@
         <v>26</v>
       </c>
       <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44372</v>
       </c>
@@ -750,13 +816,15 @@
         <v>28</v>
       </c>
       <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K370">
-      <sortCondition ref="F1:F370"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Q7" xr:uid="{CC7E0BC1-BBAF-424C-8362-70AE907698DD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
